--- a/biology/Zoologie/Diazona_violacea/Diazona_violacea.xlsx
+++ b/biology/Zoologie/Diazona_violacea/Diazona_violacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diazona violacea est une espèce d'ascidies de la famille des Diazonidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se trouve dans le nord-est de l'océan Atlantique, depuis les Hébrides et l'Irlande jusqu'au Portugal, ainsi qu'en Méditerranée.
 Elle vit fixée sur des fonds rocheux et sur des cailloux entre 15 et 200 m de profondeur, et en particulier dans les lieux traversés par des courants violents.
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Diazona violacea forme des colonies ovoïdes, semi-transparentes blanchâtres, jaunâtres à vert pâle et gélatineuses mais dures au toucher. Les colonies mesurent de 5 à 40 cm de diamètre, et peuvent atteindre une masse totale de 2 kg.
-Les individus libres, qui émergent de la masse commune, mesurent de 1 à 5 cm. Ils sont de forme globalement cylindrique et légèrement renflée à mi-hauteur[1].
+Les individus libres, qui émergent de la masse commune, mesurent de 1 à 5 cm. Ils sont de forme globalement cylindrique et légèrement renflée à mi-hauteur.
 Elle ressemble à la grande claveline, mais ces deux espèces peuvent se distinguer du fait que la seconde n'a pas de masse basale, et se trouve dès les premiers mètres de profondeur.
 </t>
         </is>
@@ -576,7 +592,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Diazona violacea est hermaphrodite, et c'est la seule espèce d'ascidies coloniales à être ovipare.
 </t>
@@ -607,7 +625,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi ses prédateurs se trouvent le gastéropode Trivia arctica ainsi que des planaires telles que Prostheceraeus vittatus.
 </t>
